--- a/DOWNLOADS/EDITAIS/U_80296_E_72025/U_80296_E_72025_master.xlsx
+++ b/DOWNLOADS/EDITAIS/U_80296_E_72025/U_80296_E_72025_master.xlsx
@@ -43,7 +43,7 @@
     <t>ARQUIVO</t>
   </si>
   <si>
-    <t>Ar condicionado 12.000 btus tipo: Split Hi Wall Modelo: Fancolete Hidrônico; Capacidade Refrigeração: 12.000 BTU; Tensão: 220 V Características Adicionais 1: Controle Remoto S/Fio, Inverter</t>
+    <t>Ar condicionado 12.000 btus tipo: Split Hi Wall Modelo: Fancolete Hidrônico; Capacidade Refrigeração: 12.000 BTU; Tensão: 220 V Controle Remoto S/Fio, Inverter</t>
   </si>
   <si>
     <t>Cadeira Escritório Material Estrutura: Resina Termoplástica Injetada Material Revestimento Assento E Encosto: Couro Ecológico/Tecido Sintético Material Encosto: Polipropileno Telado Material Assento: Compensado/Espuma Injetada Tipo Base: Giratória Com 5 Rodízios Duplos Tipo Encosto: Espaldar Alto C/ Apoio De Cabeça Apoio Braço: Com Braços Reguláveis Cor: Preta Características Adicionais: Encosto De Cabeça E Suporte Lombar Quantidade Pés: 5 UN Dimensões Assento: 450 X 490 MM Dimensões Encosto: 450 X 560 MM</t>
@@ -52,7 +52,7 @@
     <t>Cafeteiras Elétricas Material: Aço Inoxidável Capacidade: 2 L Voltagem: 110 V Normas Técnicas: Ctf/Ibama Características Adicionais: Termostato Potência: 900 W</t>
   </si>
   <si>
-    <t>Mixer Profissional, Mesa de Som Analogica, 12 Canais Mixer Profissional; Mesa de Som Analogica; Mixer de 12 Canais,Sendo 8 Canais (mic/line) e 4canais Estereo; 3 Aux. Saidas P10 Balanceado; Equalizacao Em 3 Bandas: Com Sweep Em Todos Os Canais Mic/line; Entrada e Saida Estereo Tipo Xlr; Saida Master Balanceada; Saida Estereo Processador de Efeitos, Limiter Canais 1 e 2; 2 Sub-grupos Estereo e Botoes de DestinoL-r, Interface Usb Estereo para Gravacao Em Pc Ou Mac; Distorcao Canal Microfone Mono -30dbu; Entrada de MicrofonesMono Ganho Maximo:126dbu / Entrada de Microfones Estereo Ganho Maximo: 124dbu; Fonte de Alimentacao Interna, Bivolt100 - 240v; Phantom Power de 48v Em Todos Os Canais de Microfone; Dimensoes Aprox. 115 x 380 x 390 Mm (a x l x P);Garantia Min. de 12 Meses;</t>
+    <t>Mixer Profissional, Mesa de Som Analogica, 12 Canais Mixer Profissional; Mesa de Som Analogica; Mixer de 12 Canais,Sendo 8 Canais (mic/line) e 4canais Estereo; 3 Aux. Saidas P10 Balanceado; Equalizacao Em 3 Bandas: Com Sweep Em Todos Os Canais Mic/line; Entrada e Saida Estereo Tipo Xlr; Saida Master Balanceada; Saida Estereo Processador de Efeitos, Limiter Canais 1 e 2; 2 Sub-grupos Estereo e Botoes de DestinoL-r, Interface Usb Estereo para Gravacao Em Pc Ou Mac; Distorcao Canal Microfone Mono -30dbu; Entrada de MicrofonesMono Ganho Maximo:126dbu / Entrada de Microfones Estereo Ganho Maximo: 124dbu; Fonte de Alimentacao Interna, Bivolt100 - 240v; Phantom Power de 48v Em Todos Os Canais de Microfone; Dimensoes Aprox. 115 x 380 x 390 Mm (a x l x P); Garantia Min. de 12 Meses;</t>
   </si>
   <si>
     <t>U_80296_E_72025</t>
